--- a/INTLINE/data/542/BOKNA/Monthly_NA2.xlsx
+++ b/INTLINE/data/542/BOKNA/Monthly_NA2.xlsx
@@ -1166,8 +1166,9 @@
     <col min="749" max="749" width="9.0" customWidth="true"/>
     <col min="750" max="750" width="9.0" customWidth="true"/>
     <col min="751" max="751" width="9.0" customWidth="true"/>
-    <col min="752" max="752" width="4.0" customWidth="true"/>
+    <col min="752" max="752" width="9.0" customWidth="true"/>
     <col min="753" max="753" width="4.0" customWidth="true"/>
+    <col min="754" max="754" width="4.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4936,6 +4937,11 @@
           <t>2022/03</t>
         </is>
       </c>
+      <c r="ABZ1" s="2" t="inlineStr">
+        <is>
+          <t>2022/04</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -8041,14 +8047,17 @@
         <v>137.8</v>
       </c>
       <c r="ABW2" s="3" t="n">
-        <v>128.4</v>
-      </c>
-      <c r="ABX2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>128.5</v>
+      </c>
+      <c r="ABX2" s="3" t="n">
+        <v>117.7</v>
       </c>
       <c r="ABY2" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABZ2" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -11160,12 +11169,15 @@
       <c r="ABW3" s="3" t="n">
         <v>131.8</v>
       </c>
-      <c r="ABX3" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="ABX3" s="3" t="n">
+        <v>109.1</v>
       </c>
       <c r="ABY3" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABZ3" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -14277,12 +14289,15 @@
       <c r="ABW4" s="3" t="n">
         <v>119.2</v>
       </c>
-      <c r="ABX4" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="ABX4" s="3" t="n">
+        <v>87.9</v>
       </c>
       <c r="ABY4" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABZ4" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -17394,12 +17409,15 @@
       <c r="ABW5" s="3" t="n">
         <v>169.7</v>
       </c>
-      <c r="ABX5" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="ABX5" s="3" t="n">
+        <v>155.6</v>
       </c>
       <c r="ABY5" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABZ5" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -20749,14 +20767,17 @@
         <v>101.2</v>
       </c>
       <c r="ABW6" s="3" t="n">
-        <v>95.4</v>
-      </c>
-      <c r="ABX6" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>95.9</v>
+      </c>
+      <c r="ABX6" s="3" t="n">
+        <v>88.6</v>
       </c>
       <c r="ABY6" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABZ6" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -23988,12 +24009,15 @@
       <c r="ABW7" s="3" t="n">
         <v>346.7</v>
       </c>
-      <c r="ABX7" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="ABX7" s="3" t="n">
+        <v>328.6</v>
       </c>
       <c r="ABY7" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABZ7" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -27465,12 +27489,15 @@
       <c r="ABW8" s="3" t="n">
         <v>80.4</v>
       </c>
-      <c r="ABX8" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="ABX8" s="3" t="n">
+        <v>67.6</v>
       </c>
       <c r="ABY8" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABZ8" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -30580,14 +30607,17 @@
         <v>127.2</v>
       </c>
       <c r="ABW9" s="3" t="n">
-        <v>117.3</v>
-      </c>
-      <c r="ABX9" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>117.5</v>
+      </c>
+      <c r="ABX9" s="3" t="n">
+        <v>107.9</v>
       </c>
       <c r="ABY9" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABZ9" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -33699,12 +33729,15 @@
       <c r="ABW10" s="3" t="n">
         <v>122.7</v>
       </c>
-      <c r="ABX10" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="ABX10" s="3" t="n">
+        <v>102.0</v>
       </c>
       <c r="ABY10" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABZ10" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -36816,12 +36849,15 @@
       <c r="ABW11" s="3" t="n">
         <v>100.3</v>
       </c>
-      <c r="ABX11" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="ABX11" s="3" t="n">
+        <v>74.0</v>
       </c>
       <c r="ABY11" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABZ11" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -39933,12 +39969,15 @@
       <c r="ABW12" s="3" t="n">
         <v>152.3</v>
       </c>
-      <c r="ABX12" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="ABX12" s="3" t="n">
+        <v>139.9</v>
       </c>
       <c r="ABY12" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABZ12" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -43288,14 +43327,17 @@
         <v>95.4</v>
       </c>
       <c r="ABW13" s="3" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="ABX13" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>89.8</v>
+      </c>
+      <c r="ABX13" s="3" t="n">
+        <v>83.7</v>
       </c>
       <c r="ABY13" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABZ13" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -46527,12 +46569,15 @@
       <c r="ABW14" s="3" t="n">
         <v>322.5</v>
       </c>
-      <c r="ABX14" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="ABX14" s="3" t="n">
+        <v>307.4</v>
       </c>
       <c r="ABY14" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABZ14" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -50004,12 +50049,15 @@
       <c r="ABW15" s="3" t="n">
         <v>72.3</v>
       </c>
-      <c r="ABX15" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="ABX15" s="3" t="n">
+        <v>59.8</v>
       </c>
       <c r="ABY15" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABZ15" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -53119,14 +53167,17 @@
         <v>123.2</v>
       </c>
       <c r="ABW16" s="3" t="n">
-        <v>120.8</v>
-      </c>
-      <c r="ABX16" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>120.6</v>
+      </c>
+      <c r="ABX16" s="3" t="n">
+        <v>120.7</v>
       </c>
       <c r="ABY16" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABZ16" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -56238,12 +56289,15 @@
       <c r="ABW17" s="3" t="n">
         <v>120.9</v>
       </c>
-      <c r="ABX17" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="ABX17" s="3" t="n">
+        <v>118.9</v>
       </c>
       <c r="ABY17" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABZ17" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -59355,12 +59409,15 @@
       <c r="ABW18" s="3" t="n">
         <v>96.1</v>
       </c>
-      <c r="ABX18" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="ABX18" s="3" t="n">
+        <v>81.9</v>
       </c>
       <c r="ABY18" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABZ18" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -62472,12 +62529,15 @@
       <c r="ABW19" s="3" t="n">
         <v>165.9</v>
       </c>
-      <c r="ABX19" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="ABX19" s="3" t="n">
+        <v>165.2</v>
       </c>
       <c r="ABY19" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABZ19" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -65827,14 +65887,17 @@
         <v>93.6</v>
       </c>
       <c r="ABW20" s="3" t="n">
-        <v>93.2</v>
-      </c>
-      <c r="ABX20" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>93.8</v>
+      </c>
+      <c r="ABX20" s="3" t="n">
+        <v>91.5</v>
       </c>
       <c r="ABY20" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABZ20" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -68585,9 +68648,12 @@
         <v>166.82</v>
       </c>
       <c r="ABX21" s="3" t="n">
-        <v>178.86</v>
-      </c>
-      <c r="ABY21" s="1" t="inlineStr">
+        <v>182.26</v>
+      </c>
+      <c r="ABY21" s="3" t="n">
+        <v>207.31</v>
+      </c>
+      <c r="ABZ21" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -71338,9 +71404,12 @@
         <v>128.98</v>
       </c>
       <c r="ABX22" s="3" t="n">
-        <v>132.05</v>
-      </c>
-      <c r="ABY22" s="1" t="inlineStr">
+        <v>133.1</v>
+      </c>
+      <c r="ABY22" s="3" t="n">
+        <v>140.03</v>
+      </c>
+      <c r="ABZ22" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -74091,9 +74160,12 @@
         <v>111.17</v>
       </c>
       <c r="ABX23" s="3" t="n">
-        <v>112.02</v>
-      </c>
-      <c r="ABY23" s="1" t="inlineStr">
+        <v>111.9</v>
+      </c>
+      <c r="ABY23" s="3" t="n">
+        <v>112.7</v>
+      </c>
+      <c r="ABZ23" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -77204,9 +77276,12 @@
         <v>103.39</v>
       </c>
       <c r="ABX24" s="3" t="n">
-        <v>103.4</v>
-      </c>
-      <c r="ABY24" s="1" t="inlineStr">
+        <v>103.55</v>
+      </c>
+      <c r="ABY24" s="3" t="n">
+        <v>104.86</v>
+      </c>
+      <c r="ABZ24" s="1" t="inlineStr">
         <is>
           <t/>
         </is>

--- a/INTLINE/data/542/BOKNA/Monthly_NA2.xlsx
+++ b/INTLINE/data/542/BOKNA/Monthly_NA2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{992436DF-C464-49E0-A9CC-D625A19293B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{780E262A-4A2C-4021-818D-745DD2B91DFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="23880" windowHeight="9870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="13095" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="644">
   <si>
     <t>StatisticalTable</t>
   </si>
@@ -1940,25 +1940,13 @@
     <t>Won Basis</t>
   </si>
   <si>
-    <t>321.217</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Intermediate goods</t>
   </si>
   <si>
-    <t>442.434</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Capital goods</t>
   </si>
   <si>
-    <t>91.458</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Consumer goods</t>
-  </si>
-  <si>
-    <t>144.891</t>
   </si>
   <si>
     <t>Remark</t>
@@ -2062,7 +2050,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2071,7 +2062,1864 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2079,1874 +3927,14 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -8012,16 +8000,16 @@
       </c>
     </row>
     <row r="2" spans="1:623" ht="23.25" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>624</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>626</v>
       </c>
       <c r="E2" s="6"/>
@@ -10594,16 +10582,16 @@
       <c r="WY3" s="1247"/>
     </row>
     <row r="4" spans="1:623" ht="23.25" customHeight="1">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>624</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>626</v>
       </c>
       <c r="E4" s="6"/>
@@ -13176,16 +13164,16 @@
       <c r="WY5" s="1247"/>
     </row>
     <row r="6" spans="1:623" ht="23.25" customHeight="1">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>630</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="2" t="s">
         <v>626</v>
       </c>
       <c r="E6" s="6"/>
@@ -15758,16 +15746,16 @@
       <c r="WY7" s="1247"/>
     </row>
     <row r="8" spans="1:623" ht="23.25" customHeight="1">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="2" t="s">
         <v>626</v>
       </c>
       <c r="E8" s="6"/>
@@ -18340,16 +18328,16 @@
       <c r="WY9" s="1247"/>
     </row>
     <row r="10" spans="1:623" ht="23.25" customHeight="1">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="2" t="s">
         <v>626</v>
       </c>
       <c r="E10" s="6"/>
@@ -20922,16 +20910,16 @@
       <c r="WY11" s="1247"/>
     </row>
     <row r="12" spans="1:623" ht="23.25" customHeight="1">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>632</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="2" t="s">
         <v>626</v>
       </c>
       <c r="E12" s="6"/>
@@ -23504,16 +23492,16 @@
       <c r="WY13" s="1247"/>
     </row>
     <row r="14" spans="1:623" ht="23.25" customHeight="1">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>633</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="2" t="s">
         <v>626</v>
       </c>
       <c r="E14" s="6"/>
@@ -25606,16 +25594,16 @@
       <c r="WY15" s="1247"/>
     </row>
     <row r="16" spans="1:623" ht="23.25" customHeight="1">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>633</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="2" t="s">
         <v>626</v>
       </c>
       <c r="E16" s="6"/>
@@ -27828,16 +27816,16 @@
       <c r="WY17" s="1247"/>
     </row>
     <row r="18" spans="1:623" ht="23.25" customHeight="1">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>634</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="2" t="s">
         <v>626</v>
       </c>
       <c r="E18" s="6"/>
@@ -29634,16 +29622,16 @@
       <c r="WY19" s="1247"/>
     </row>
     <row r="20" spans="1:623" ht="23.25" customHeight="1">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>635</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="2" t="s">
         <v>626</v>
       </c>
       <c r="E20" s="6"/>
@@ -31496,16 +31484,16 @@
       <c r="WY21" s="1247"/>
     </row>
     <row r="22" spans="1:623" ht="23.25" customHeight="1">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>635</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="2" t="s">
         <v>626</v>
       </c>
       <c r="E22" s="6"/>
@@ -32143,8 +32131,8 @@
       <c r="D23" s="628" t="s">
         <v>626</v>
       </c>
-      <c r="E23" s="629" t="s">
-        <v>639</v>
+      <c r="E23" s="629">
+        <v>321.21699999999998</v>
       </c>
       <c r="F23" s="630" t="s">
         <v>627</v>
@@ -33786,20 +33774,20 @@
       </c>
     </row>
     <row r="24" spans="1:623" ht="23.25" customHeight="1">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="C24" s="4" t="s">
+      <c r="B24" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>638</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>641</v>
+      <c r="E24" s="6">
+        <v>442.43400000000003</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>627</v>
@@ -35445,7 +35433,7 @@
         <v>636</v>
       </c>
       <c r="B25" s="626" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C25" s="627" t="s">
         <v>638</v>
@@ -35453,8 +35441,8 @@
       <c r="D25" s="628" t="s">
         <v>626</v>
       </c>
-      <c r="E25" s="629" t="s">
-        <v>643</v>
+      <c r="E25" s="629">
+        <v>91.457999999999998</v>
       </c>
       <c r="F25" s="630" t="s">
         <v>627</v>
@@ -37096,20 +37084,20 @@
       </c>
     </row>
     <row r="26" spans="1:623" ht="23.25" customHeight="1">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="C26" s="4" t="s">
+      <c r="B26" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>638</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>645</v>
+      <c r="E26" s="6">
+        <v>144.89099999999999</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>627</v>
@@ -38409,12 +38397,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="23.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="409.6" customHeight="1">
       <c r="A2" s="1248" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
   </sheetData>
